--- a/Ascombe (1973).xlsx
+++ b/Ascombe (1973).xlsx
@@ -1,24 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Desktop\Curso Econometria no Excel\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weback\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A03BB5-DD8A-4F8B-B910-7E613C4021C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Anscombe (resolvido)" sheetId="2" r:id="rId1"/>
+    <sheet name="Anscombe (resolvido)" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="Anscombe" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -151,10 +163,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -366,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -381,7 +393,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -405,13 +417,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -429,28 +438,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -458,9 +465,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,7 +486,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -494,7 +500,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -651,6 +656,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-10F2-477D-B21C-B4F8BAF32F4A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -834,7 +844,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -848,7 +858,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1005,6 +1014,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C4A9-48F4-A542-D0B9A1C1AE42}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1188,7 +1202,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1202,7 +1216,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1359,6 +1372,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-27A9-4070-AD4D-99DCC165B691}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1542,7 +1560,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1556,7 +1574,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1713,6 +1730,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-91CE-4FA6-B155-CD7D37CEEF11}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4136,7 +4158,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4191,7 +4219,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 4"/>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4246,7 +4280,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Gráfico 8"/>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4276,7 +4316,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Gráfico 9"/>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4306,7 +4352,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Gráfico 10"/>
+        <xdr:cNvPr id="11" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4336,7 +4388,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Gráfico 11"/>
+        <xdr:cNvPr id="12" name="Gráfico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4371,7 +4429,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4426,7 +4490,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4481,7 +4551,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3"/>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4786,7 +4862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="I2:Z47"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
@@ -4806,94 +4882,94 @@
   </cols>
   <sheetData>
     <row r="2" spans="9:26" x14ac:dyDescent="0.35">
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22" t="s">
+      <c r="K2" s="32"/>
+      <c r="L2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="M2" s="32"/>
+      <c r="N2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22" t="s">
+      <c r="O2" s="32"/>
+      <c r="P2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="S2" s="31" t="s">
+      <c r="Q2" s="32"/>
+      <c r="S2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="32"/>
-      <c r="U2" s="31" t="s">
+      <c r="T2" s="31"/>
+      <c r="U2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="32"/>
-      <c r="W2" s="31" t="s">
+      <c r="V2" s="31"/>
+      <c r="W2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="31" t="s">
+      <c r="X2" s="31"/>
+      <c r="Y2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="32"/>
+      <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="9:26" x14ac:dyDescent="0.35">
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="S3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="30" t="s">
+      <c r="T3" s="27" t="s">
         <v>24</v>
       </c>
       <c r="U3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="30" t="s">
+      <c r="V3" s="27" t="s">
         <v>25</v>
       </c>
       <c r="W3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="30" t="s">
+      <c r="X3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="33" t="s">
+      <c r="Y3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="30" t="s">
+      <c r="Z3" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="9:26" x14ac:dyDescent="0.35">
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <v>1</v>
       </c>
       <c r="J4" s="8">
@@ -4923,40 +4999,40 @@
         <v>6.58</v>
       </c>
       <c r="S4">
-        <f>INTERCEPT($K$4:$K$14,$J$4:$J$14)+SLOPE($K$4:$K$14,$J$4:$J$14)*J4</f>
+        <f t="shared" ref="S4:S14" si="0">INTERCEPT($K$4:$K$14,$J$4:$J$14)+SLOPE($K$4:$K$14,$J$4:$J$14)*J4</f>
         <v>8.0010000000000012</v>
       </c>
-      <c r="T4" s="28">
-        <f>S24/$L$17</f>
+      <c r="T4" s="25">
+        <f t="shared" ref="T4:T14" si="1">S24/$L$17</f>
         <v>8.1196758873988308</v>
       </c>
       <c r="U4">
-        <f>INTERCEPT($M$4:$M$14,$L$4:$L$14)+SLOPE($M$4:$M$14,$L$4:$L$14)*L4</f>
+        <f t="shared" ref="U4:U14" si="2">INTERCEPT($M$4:$M$14,$L$4:$L$14)+SLOPE($M$4:$M$14,$L$4:$L$14)*L4</f>
         <v>8.0009090909090901</v>
       </c>
-      <c r="V4" s="28">
-        <f>T24/$L$18</f>
+      <c r="V4" s="25">
+        <f t="shared" ref="V4:V14" si="3">T24/$L$18</f>
         <v>9.0033648668102462</v>
       </c>
       <c r="W4">
-        <f>INTERCEPT($O$4:$O$14,$N$4:$N$14)+SLOPE($O$4:$O$14,$N$4:$N$14)*N4</f>
+        <f t="shared" ref="W4:W14" si="4">INTERCEPT($O$4:$O$14,$N$4:$N$14)+SLOPE($O$4:$O$14,$N$4:$N$14)*N4</f>
         <v>7.9997272727272737</v>
       </c>
-      <c r="X4" s="28">
-        <f>U24/$L$19</f>
+      <c r="X4" s="25">
+        <f t="shared" ref="X4:X14" si="5">U24/$L$19</f>
         <v>7.6476028236641529</v>
       </c>
       <c r="Y4">
-        <f>INTERCEPT($Q$4:$Q$14,$P$4:$P$14)+SLOPE($Q$4:$Q$14,$P$4:$P$14)*P4</f>
+        <f t="shared" ref="Y4:Y14" si="6">INTERCEPT($Q$4:$Q$14,$P$4:$P$14)+SLOPE($Q$4:$Q$14,$P$4:$P$14)*P4</f>
         <v>7.0009999999999994</v>
       </c>
-      <c r="Z4" s="28">
-        <f>V24/$L$20</f>
+      <c r="Z4" s="25">
+        <f t="shared" ref="Z4:Z14" si="7">V24/$L$20</f>
         <v>6.132211003722416</v>
       </c>
     </row>
     <row r="5" spans="9:26" x14ac:dyDescent="0.35">
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <v>2</v>
       </c>
       <c r="J5" s="10">
@@ -4966,14 +5042,14 @@
         <v>6.95</v>
       </c>
       <c r="L5" s="10">
-        <f t="shared" ref="L5:L14" si="0">J5</f>
+        <f t="shared" ref="L5:L14" si="8">J5</f>
         <v>8</v>
       </c>
       <c r="M5" s="11">
         <v>8.14</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" ref="N5:N14" si="1">J5</f>
+        <f t="shared" ref="N5:N14" si="9">J5</f>
         <v>8</v>
       </c>
       <c r="O5" s="11">
@@ -4986,40 +5062,40 @@
         <v>5.76</v>
       </c>
       <c r="S5">
-        <f>INTERCEPT($K$4:$K$14,$J$4:$J$14)+SLOPE($K$4:$K$14,$J$4:$J$14)*J5</f>
+        <f t="shared" si="0"/>
         <v>7.0008181818181834</v>
       </c>
-      <c r="T5" s="28">
-        <f>S25/$L$17</f>
+      <c r="T5" s="25">
+        <f t="shared" si="1"/>
         <v>6.4294153327258687</v>
       </c>
       <c r="U5">
-        <f>INTERCEPT($M$4:$M$14,$L$4:$L$14)+SLOPE($M$4:$M$14,$L$4:$L$14)*L5</f>
+        <f t="shared" si="2"/>
         <v>7.000909090909091</v>
       </c>
-      <c r="V5" s="28">
-        <f>T25/$L$18</f>
+      <c r="V5" s="25">
+        <f t="shared" si="3"/>
         <v>7.3868299196966785</v>
       </c>
       <c r="W5">
-        <f>INTERCEPT($O$4:$O$14,$N$4:$N$14)+SLOPE($O$4:$O$14,$N$4:$N$14)*N5</f>
+        <f t="shared" si="4"/>
         <v>7.0002727272727281</v>
       </c>
-      <c r="X5" s="28">
-        <f>U25/$L$19</f>
+      <c r="X5" s="25">
+        <f t="shared" si="5"/>
         <v>6.2810744458772181</v>
       </c>
       <c r="Y5">
-        <f>INTERCEPT($Q$4:$Q$14,$P$4:$P$14)+SLOPE($Q$4:$Q$14,$P$4:$P$14)*P5</f>
+        <f t="shared" si="6"/>
         <v>7.0009999999999994</v>
       </c>
-      <c r="Z5" s="28">
-        <f>V25/$L$20</f>
+      <c r="Z5" s="25">
+        <f t="shared" si="7"/>
         <v>5.4686170928424689</v>
       </c>
     </row>
     <row r="6" spans="9:26" x14ac:dyDescent="0.35">
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <v>3</v>
       </c>
       <c r="J6" s="10">
@@ -5029,14 +5105,14 @@
         <v>7.58</v>
       </c>
       <c r="L6" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="M6" s="11">
         <v>8.74</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="O6" s="11">
@@ -5049,40 +5125,40 @@
         <v>7.71</v>
       </c>
       <c r="S6">
-        <f>INTERCEPT($K$4:$K$14,$J$4:$J$14)+SLOPE($K$4:$K$14,$J$4:$J$14)*J6</f>
+        <f t="shared" si="0"/>
         <v>9.5012727272727293</v>
       </c>
-      <c r="T6" s="28">
-        <f>S26/$L$17</f>
+      <c r="T6" s="25">
+        <f t="shared" si="1"/>
         <v>8.9609098612646392</v>
       </c>
       <c r="U6">
-        <f>INTERCEPT($M$4:$M$14,$L$4:$L$14)+SLOPE($M$4:$M$14,$L$4:$L$14)*L6</f>
+        <f t="shared" si="2"/>
         <v>9.5009090909090901</v>
       </c>
-      <c r="V6" s="28">
-        <f>T26/$L$18</f>
+      <c r="V6" s="25">
+        <f t="shared" si="3"/>
         <v>9.8924590877227061</v>
       </c>
       <c r="W6">
-        <f>INTERCEPT($O$4:$O$14,$N$4:$N$14)+SLOPE($O$4:$O$14,$N$4:$N$14)*N6</f>
+        <f t="shared" si="4"/>
         <v>9.4989090909090912</v>
       </c>
-      <c r="X6" s="28">
-        <f>U26/$L$19</f>
+      <c r="X6" s="25">
+        <f t="shared" si="5"/>
         <v>13.130996477342029</v>
       </c>
       <c r="Y6">
-        <f>INTERCEPT($Q$4:$Q$14,$P$4:$P$14)+SLOPE($Q$4:$Q$14,$P$4:$P$14)*P6</f>
+        <f t="shared" si="6"/>
         <v>7.0009999999999994</v>
       </c>
-      <c r="Z6" s="28">
-        <f>V26/$L$20</f>
+      <c r="Z6" s="25">
+        <f t="shared" si="7"/>
         <v>7.0466757833496585</v>
       </c>
     </row>
     <row r="7" spans="9:26" x14ac:dyDescent="0.35">
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <v>4</v>
       </c>
       <c r="J7" s="10">
@@ -5092,14 +5168,14 @@
         <v>8.81</v>
       </c>
       <c r="L7" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="M7" s="11">
         <v>8.77</v>
       </c>
       <c r="N7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="O7" s="11">
@@ -5112,40 +5188,40 @@
         <v>8.84</v>
       </c>
       <c r="S7">
-        <f>INTERCEPT($K$4:$K$14,$J$4:$J$14)+SLOPE($K$4:$K$14,$J$4:$J$14)*J7</f>
+        <f t="shared" si="0"/>
         <v>7.5009090909090927</v>
       </c>
-      <c r="T7" s="28">
-        <f>S27/$L$17</f>
+      <c r="T7" s="25">
+        <f t="shared" si="1"/>
         <v>8.3379423969162296</v>
       </c>
       <c r="U7">
-        <f>INTERCEPT($M$4:$M$14,$L$4:$L$14)+SLOPE($M$4:$M$14,$L$4:$L$14)*L7</f>
+        <f t="shared" si="2"/>
         <v>7.500909090909091</v>
       </c>
-      <c r="V7" s="28">
-        <f>T27/$L$18</f>
+      <c r="V7" s="25">
+        <f t="shared" si="3"/>
         <v>8.3001721648158426</v>
       </c>
       <c r="W7">
-        <f>INTERCEPT($O$4:$O$14,$N$4:$N$14)+SLOPE($O$4:$O$14,$N$4:$N$14)*N7</f>
+        <f t="shared" si="4"/>
         <v>7.5000000000000009</v>
       </c>
-      <c r="X7" s="28">
-        <f>U27/$L$19</f>
+      <c r="X7" s="25">
+        <f t="shared" si="5"/>
         <v>6.9602943460934217</v>
       </c>
       <c r="Y7">
-        <f>INTERCEPT($Q$4:$Q$14,$P$4:$P$14)+SLOPE($Q$4:$Q$14,$P$4:$P$14)*P7</f>
+        <f t="shared" si="6"/>
         <v>7.0009999999999994</v>
       </c>
-      <c r="Z7" s="28">
-        <f>V27/$L$20</f>
+      <c r="Z7" s="25">
+        <f t="shared" si="7"/>
         <v>7.9611405629769028</v>
       </c>
     </row>
     <row r="8" spans="9:26" x14ac:dyDescent="0.35">
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <v>5</v>
       </c>
       <c r="J8" s="10">
@@ -5155,14 +5231,14 @@
         <v>8.33</v>
       </c>
       <c r="L8" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="M8" s="11">
         <v>9.26</v>
       </c>
       <c r="N8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="O8" s="11">
@@ -5175,40 +5251,40 @@
         <v>8.4700000000000006</v>
       </c>
       <c r="S8">
-        <f>INTERCEPT($K$4:$K$14,$J$4:$J$14)+SLOPE($K$4:$K$14,$J$4:$J$14)*J8</f>
+        <f t="shared" si="0"/>
         <v>8.5010909090909106</v>
       </c>
-      <c r="T8" s="28">
-        <f>S28/$L$17</f>
+      <c r="T8" s="25">
+        <f t="shared" si="1"/>
         <v>8.7585961414290452</v>
       </c>
       <c r="U8">
-        <f>INTERCEPT($M$4:$M$14,$L$4:$L$14)+SLOPE($M$4:$M$14,$L$4:$L$14)*L8</f>
+        <f t="shared" si="2"/>
         <v>8.5009090909090901</v>
       </c>
-      <c r="V8" s="28">
-        <f>T28/$L$18</f>
+      <c r="V8" s="25">
+        <f t="shared" si="3"/>
         <v>9.5044907004154489</v>
       </c>
       <c r="W8">
-        <f>INTERCEPT($O$4:$O$14,$N$4:$N$14)+SLOPE($O$4:$O$14,$N$4:$N$14)*N8</f>
+        <f t="shared" si="4"/>
         <v>8.4994545454545474</v>
       </c>
-      <c r="X8" s="28">
-        <f>U28/$L$19</f>
+      <c r="X8" s="25">
+        <f t="shared" si="5"/>
         <v>8.3349113012348859</v>
       </c>
       <c r="Y8">
-        <f>INTERCEPT($Q$4:$Q$14,$P$4:$P$14)+SLOPE($Q$4:$Q$14,$P$4:$P$14)*P8</f>
+        <f t="shared" si="6"/>
         <v>7.0009999999999994</v>
       </c>
-      <c r="Z8" s="28">
-        <f>V28/$L$20</f>
+      <c r="Z8" s="25">
+        <f t="shared" si="7"/>
         <v>7.6617140422140011</v>
       </c>
     </row>
     <row r="9" spans="9:26" x14ac:dyDescent="0.35">
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <v>6</v>
       </c>
       <c r="J9" s="10">
@@ -5218,14 +5294,14 @@
         <v>9.9600000000000009</v>
       </c>
       <c r="L9" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="M9" s="11">
         <v>8.1</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="O9" s="11">
@@ -5238,40 +5314,40 @@
         <v>7.04</v>
       </c>
       <c r="S9">
-        <f>INTERCEPT($K$4:$K$14,$J$4:$J$14)+SLOPE($K$4:$K$14,$J$4:$J$14)*J9</f>
+        <f t="shared" si="0"/>
         <v>10.001363636363639</v>
       </c>
-      <c r="T9" s="28">
-        <f>S29/$L$17</f>
+      <c r="T9" s="25">
+        <f t="shared" si="1"/>
         <v>11.289943639648168</v>
       </c>
       <c r="U9">
-        <f>INTERCEPT($M$4:$M$14,$L$4:$L$14)+SLOPE($M$4:$M$14,$L$4:$L$14)*L9</f>
+        <f t="shared" si="2"/>
         <v>10.00090909090909</v>
       </c>
-      <c r="V9" s="28">
-        <f>T29/$L$18</f>
+      <c r="V9" s="25">
+        <f t="shared" si="3"/>
         <v>9.7793016414247553</v>
       </c>
       <c r="W9">
-        <f>INTERCEPT($O$4:$O$14,$N$4:$N$14)+SLOPE($O$4:$O$14,$N$4:$N$14)*N9</f>
+        <f t="shared" si="4"/>
         <v>9.9986363636363649</v>
       </c>
-      <c r="X9" s="28">
-        <f>U29/$L$19</f>
+      <c r="X9" s="25">
+        <f t="shared" si="5"/>
         <v>10.380659579238024</v>
       </c>
       <c r="Y9">
-        <f>INTERCEPT($Q$4:$Q$14,$P$4:$P$14)+SLOPE($Q$4:$Q$14,$P$4:$P$14)*P9</f>
+        <f t="shared" si="6"/>
         <v>7.0009999999999994</v>
       </c>
-      <c r="Z9" s="28">
-        <f>V29/$L$20</f>
+      <c r="Z9" s="25">
+        <f t="shared" si="7"/>
         <v>6.504471002508728</v>
       </c>
     </row>
     <row r="10" spans="9:26" x14ac:dyDescent="0.35">
-      <c r="I10" s="20">
+      <c r="I10" s="19">
         <v>7</v>
       </c>
       <c r="J10" s="10">
@@ -5281,14 +5357,14 @@
         <v>7.24</v>
       </c>
       <c r="L10" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="M10" s="11">
         <v>6.13</v>
       </c>
       <c r="N10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="O10" s="11">
@@ -5301,40 +5377,40 @@
         <v>5.25</v>
       </c>
       <c r="S10">
-        <f>INTERCEPT($K$4:$K$14,$J$4:$J$14)+SLOPE($K$4:$K$14,$J$4:$J$14)*J10</f>
+        <f t="shared" si="0"/>
         <v>6.0006363636363655</v>
       </c>
-      <c r="T10" s="28">
-        <f>S30/$L$17</f>
+      <c r="T10" s="25">
+        <f t="shared" si="1"/>
         <v>5.8551149041809323</v>
       </c>
       <c r="U10">
-        <f>INTERCEPT($M$4:$M$14,$L$4:$L$14)+SLOPE($M$4:$M$14,$L$4:$L$14)*L10</f>
+        <f t="shared" si="2"/>
         <v>6.000909090909091</v>
       </c>
-      <c r="V10" s="28">
-        <f>T30/$L$18</f>
+      <c r="V10" s="25">
+        <f t="shared" si="3"/>
         <v>4.9539448242907591</v>
       </c>
       <c r="W10">
-        <f>INTERCEPT($O$4:$O$14,$N$4:$N$14)+SLOPE($O$4:$O$14,$N$4:$N$14)*N10</f>
+        <f t="shared" si="4"/>
         <v>6.0008181818181825</v>
       </c>
-      <c r="X10" s="28">
-        <f>U30/$L$19</f>
+      <c r="X10" s="25">
+        <f t="shared" si="5"/>
         <v>4.9145460680902824</v>
       </c>
       <c r="Y10">
-        <f>INTERCEPT($Q$4:$Q$14,$P$4:$P$14)+SLOPE($Q$4:$Q$14,$P$4:$P$14)*P10</f>
+        <f t="shared" si="6"/>
         <v>7.0009999999999994</v>
       </c>
-      <c r="Z10" s="28">
-        <f>V30/$L$20</f>
+      <c r="Z10" s="25">
+        <f t="shared" si="7"/>
         <v>5.0558940507098198</v>
       </c>
     </row>
     <row r="11" spans="9:26" x14ac:dyDescent="0.35">
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <v>8</v>
       </c>
       <c r="J11" s="10">
@@ -5344,14 +5420,14 @@
         <v>4.26</v>
       </c>
       <c r="L11" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="M11" s="11">
         <v>3.1</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="O11" s="11">
@@ -5364,40 +5440,40 @@
         <v>12.5</v>
       </c>
       <c r="S11">
-        <f>INTERCEPT($K$4:$K$14,$J$4:$J$14)+SLOPE($K$4:$K$14,$J$4:$J$14)*J11</f>
+        <f t="shared" si="0"/>
         <v>5.0004545454545468</v>
       </c>
-      <c r="T11" s="28">
-        <f>S31/$L$17</f>
+      <c r="T11" s="25">
+        <f t="shared" si="1"/>
         <v>2.6364741767674142</v>
       </c>
       <c r="U11">
-        <f>INTERCEPT($M$4:$M$14,$L$4:$L$14)+SLOPE($M$4:$M$14,$L$4:$L$14)*L11</f>
+        <f t="shared" si="2"/>
         <v>5.000909090909091</v>
       </c>
-      <c r="V11" s="28">
-        <f>T31/$L$18</f>
+      <c r="V11" s="25">
+        <f t="shared" si="3"/>
         <v>1.6966269058569212</v>
       </c>
       <c r="W11">
-        <f>INTERCEPT($O$4:$O$14,$N$4:$N$14)+SLOPE($O$4:$O$14,$N$4:$N$14)*N11</f>
+        <f t="shared" si="4"/>
         <v>5.0013636363636378</v>
       </c>
-      <c r="X11" s="28">
-        <f>U31/$L$19</f>
+      <c r="X11" s="25">
+        <f t="shared" si="5"/>
         <v>3.5480176903033476</v>
       </c>
       <c r="Y11">
-        <f>INTERCEPT($Q$4:$Q$14,$P$4:$P$14)+SLOPE($Q$4:$Q$14,$P$4:$P$14)*P11</f>
+        <f t="shared" si="6"/>
         <v>12.499999999999998</v>
       </c>
-      <c r="Z11" s="28">
-        <f>V31/$L$20</f>
+      <c r="Z11" s="25">
+        <f t="shared" si="7"/>
         <v>15.373160843159138</v>
       </c>
     </row>
     <row r="12" spans="9:26" x14ac:dyDescent="0.35">
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <v>9</v>
       </c>
       <c r="J12" s="10">
@@ -5407,14 +5483,14 @@
         <v>10.84</v>
       </c>
       <c r="L12" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="M12" s="11">
         <v>9.1300000000000008</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="O12" s="11">
@@ -5427,40 +5503,40 @@
         <v>5.56</v>
       </c>
       <c r="S12">
-        <f>INTERCEPT($K$4:$K$14,$J$4:$J$14)+SLOPE($K$4:$K$14,$J$4:$J$14)*J12</f>
+        <f t="shared" si="0"/>
         <v>9.0011818181818199</v>
       </c>
-      <c r="T12" s="28">
-        <f>S32/$L$17</f>
+      <c r="T12" s="25">
+        <f t="shared" si="1"/>
         <v>11.192756598360866</v>
       </c>
       <c r="U12">
-        <f>INTERCEPT($M$4:$M$14,$L$4:$L$14)+SLOPE($M$4:$M$14,$L$4:$L$14)*L12</f>
+        <f t="shared" si="2"/>
         <v>9.0009090909090901</v>
       </c>
-      <c r="V12" s="28">
-        <f>T32/$L$18</f>
+      <c r="V12" s="25">
+        <f t="shared" si="3"/>
         <v>9.8035496656314596</v>
       </c>
       <c r="W12">
-        <f>INTERCEPT($O$4:$O$14,$N$4:$N$14)+SLOPE($O$4:$O$14,$N$4:$N$14)*N12</f>
+        <f t="shared" si="4"/>
         <v>8.9991818181818193</v>
       </c>
-      <c r="X12" s="28">
-        <f>U32/$L$19</f>
+      <c r="X12" s="25">
+        <f t="shared" si="5"/>
         <v>9.0141312014510895</v>
       </c>
       <c r="Y12">
-        <f>INTERCEPT($Q$4:$Q$14,$P$4:$P$14)+SLOPE($Q$4:$Q$14,$P$4:$P$14)*P12</f>
+        <f t="shared" si="6"/>
         <v>7.0009999999999994</v>
       </c>
-      <c r="Z12" s="28">
-        <f>V32/$L$20</f>
+      <c r="Z12" s="25">
+        <f t="shared" si="7"/>
         <v>5.306764919457116</v>
       </c>
     </row>
     <row r="13" spans="9:26" x14ac:dyDescent="0.35">
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <v>10</v>
       </c>
       <c r="J13" s="10">
@@ -5470,14 +5546,14 @@
         <v>4.82</v>
       </c>
       <c r="L13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="M13" s="11">
         <v>7.26</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="O13" s="11">
@@ -5490,40 +5566,40 @@
         <v>7.91</v>
       </c>
       <c r="S13">
-        <f>INTERCEPT($K$4:$K$14,$J$4:$J$14)+SLOPE($K$4:$K$14,$J$4:$J$14)*J13</f>
+        <f t="shared" si="0"/>
         <v>6.500727272727274</v>
       </c>
-      <c r="T13" s="28">
-        <f>S33/$L$17</f>
+      <c r="T13" s="25">
+        <f t="shared" si="1"/>
         <v>4.3025482438582863</v>
       </c>
       <c r="U13">
-        <f>INTERCEPT($M$4:$M$14,$L$4:$L$14)+SLOPE($M$4:$M$14,$L$4:$L$14)*L13</f>
+        <f t="shared" si="2"/>
         <v>6.500909090909091</v>
       </c>
-      <c r="V13" s="28">
-        <f>T33/$L$18</f>
+      <c r="V13" s="25">
+        <f t="shared" si="3"/>
         <v>6.2714208061883161</v>
       </c>
       <c r="W13">
-        <f>INTERCEPT($O$4:$O$14,$N$4:$N$14)+SLOPE($O$4:$O$14,$N$4:$N$14)*N13</f>
+        <f t="shared" si="4"/>
         <v>6.5005454545454562</v>
       </c>
-      <c r="X13" s="28">
-        <f>U33/$L$19</f>
+      <c r="X13" s="25">
+        <f t="shared" si="5"/>
         <v>5.5937659683064869</v>
       </c>
       <c r="Y13">
-        <f>INTERCEPT($Q$4:$Q$14,$P$4:$P$14)+SLOPE($Q$4:$Q$14,$P$4:$P$14)*P13</f>
+        <f t="shared" si="6"/>
         <v>7.0009999999999994</v>
       </c>
-      <c r="Z13" s="28">
-        <f>V33/$L$20</f>
+      <c r="Z13" s="25">
+        <f t="shared" si="7"/>
         <v>7.2085279567350122</v>
       </c>
     </row>
     <row r="14" spans="9:26" x14ac:dyDescent="0.35">
-      <c r="I14" s="21">
+      <c r="I14" s="20">
         <v>11</v>
       </c>
       <c r="J14" s="12">
@@ -5533,14 +5609,14 @@
         <v>5.68</v>
       </c>
       <c r="L14" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="M14" s="13">
         <v>4.74</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="O14" s="13">
@@ -5553,35 +5629,35 @@
         <v>6.89</v>
       </c>
       <c r="S14">
-        <f>INTERCEPT($K$4:$K$14,$J$4:$J$14)+SLOPE($K$4:$K$14,$J$4:$J$14)*J14</f>
+        <f t="shared" si="0"/>
         <v>5.5005454545454562</v>
       </c>
-      <c r="T14" s="29">
-        <f>S34/$L$17</f>
+      <c r="T14" s="26">
+        <f t="shared" si="1"/>
         <v>4.1891878674097081</v>
       </c>
       <c r="U14">
-        <f>INTERCEPT($M$4:$M$14,$L$4:$L$14)+SLOPE($M$4:$M$14,$L$4:$L$14)*L14</f>
+        <f t="shared" si="2"/>
         <v>5.500909090909091</v>
       </c>
-      <c r="V14" s="29">
-        <f>T34/$L$18</f>
+      <c r="V14" s="26">
+        <f t="shared" si="3"/>
         <v>3.4263192992684379</v>
       </c>
       <c r="W14">
-        <f>INTERCEPT($O$4:$O$14,$N$4:$N$14)+SLOPE($O$4:$O$14,$N$4:$N$14)*N14</f>
+        <f t="shared" si="4"/>
         <v>5.5010909090909106</v>
       </c>
-      <c r="X14" s="29">
-        <f>U34/$L$19</f>
+      <c r="X14" s="26">
+        <f t="shared" si="5"/>
         <v>4.2272375905195512</v>
       </c>
       <c r="Y14">
-        <f>INTERCEPT($Q$4:$Q$14,$P$4:$P$14)+SLOPE($Q$4:$Q$14,$P$4:$P$14)*P14</f>
+        <f t="shared" si="6"/>
         <v>7.0009999999999994</v>
       </c>
-      <c r="Z14" s="29">
-        <f>V34/$L$20</f>
+      <c r="Z14" s="26">
+        <f t="shared" si="7"/>
         <v>6.3830818724697123</v>
       </c>
     </row>
@@ -5601,13 +5677,13 @@
       <c r="N16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="16" t="s">
+      <c r="O16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P16" s="16" t="s">
+      <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q16" s="16" t="s">
+      <c r="Q16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="R16" s="14" t="s">
@@ -5653,11 +5729,11 @@
         <f>SUM(K24:K34)</f>
         <v>41.272690909090912</v>
       </c>
-      <c r="R17" s="23">
+      <c r="R17" s="21">
         <f>SUM(K37:K47)</f>
         <v>13.762689999999999</v>
       </c>
-      <c r="S17" s="23">
+      <c r="S17" s="21">
         <f>Q17-R17</f>
         <v>27.510000909090913</v>
       </c>
@@ -5698,12 +5774,12 @@
         <f>SUM(M24:M34)</f>
         <v>41.276290909090903</v>
       </c>
-      <c r="R18" s="24">
+      <c r="R18" s="6">
         <f>SUM(M37:M47)</f>
         <v>13.776290909090909</v>
       </c>
-      <c r="S18" s="24">
-        <f t="shared" ref="S18:S20" si="2">Q18-R18</f>
+      <c r="S18" s="6">
+        <f t="shared" ref="S18:S20" si="10">Q18-R18</f>
         <v>27.499999999999993</v>
       </c>
     </row>
@@ -5743,12 +5819,12 @@
         <f>SUM(O24:O34)</f>
         <v>41.226200000000006</v>
       </c>
-      <c r="R19" s="24">
+      <c r="R19" s="6">
         <f>SUM(O37:O47)</f>
         <v>13.756191818181826</v>
       </c>
-      <c r="S19" s="24">
-        <f t="shared" si="2"/>
+      <c r="S19" s="6">
+        <f t="shared" si="10"/>
         <v>27.47000818181818</v>
       </c>
     </row>
@@ -5756,23 +5832,23 @@
       <c r="I20" t="s">
         <v>7</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="22">
         <f>INTERCEPT(Q4:Q14,P4:P14)</f>
         <v>3.0017272727272726</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="23">
         <f>SLOPE(Q4:Q14,P4:P14)</f>
         <v>0.49990909090909086</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="22">
         <f>STEYX(Q4:Q14,P4:P14)</f>
         <v>1.2356954856813769</v>
       </c>
-      <c r="M20" s="27">
+      <c r="M20" s="24">
         <f>L20/(SQRT(SUMSQ(P4:P14)-11*AVERAGE(P4:P14)^2))</f>
         <v>0.11781894172968553</v>
       </c>
-      <c r="N20" s="25">
+      <c r="N20" s="22">
         <f>RSQ(Q4:Q14,P4:P14)</f>
         <v>0.66670725689846533</v>
       </c>
@@ -5780,20 +5856,20 @@
         <f>AVERAGE(P4:P14)</f>
         <v>9</v>
       </c>
-      <c r="P20" s="26">
+      <c r="P20" s="23">
         <f>AVERAGE(Q4:Q14)</f>
         <v>7.5009090909090901</v>
       </c>
-      <c r="Q20" s="26">
+      <c r="Q20" s="23">
         <f>SUM(Q24:Q34)</f>
         <v>41.232490909090906</v>
       </c>
-      <c r="R20" s="26">
+      <c r="R20" s="23">
         <f>SUM(Q37:Q47)</f>
         <v>13.742490000000004</v>
       </c>
-      <c r="S20" s="26">
-        <f t="shared" si="2"/>
+      <c r="S20" s="23">
+        <f t="shared" si="10"/>
         <v>27.490000909090902</v>
       </c>
     </row>
@@ -5851,355 +5927,355 @@
         <v>10.040818181818182</v>
       </c>
       <c r="T24">
-        <f>M4-INTERCEPT($M$4:$M$14,$L$4:$L$14)+SLOPE($M$4:$M$14,$L$4:$L$14)*L4</f>
+        <f t="shared" ref="T24:T34" si="11">M4-INTERCEPT($M$4:$M$14,$L$4:$L$14)+SLOPE($M$4:$M$14,$L$4:$L$14)*L4</f>
         <v>11.13909090909091</v>
       </c>
       <c r="U24">
-        <f>O4-INTERCEPT($O$4:$O$14,$N$4:$N$14)+SLOPE($O$4:$O$14,$N$4:$N$14)*N4</f>
+        <f t="shared" ref="U24:U34" si="12">O4-INTERCEPT($O$4:$O$14,$N$4:$N$14)+SLOPE($O$4:$O$14,$N$4:$N$14)*N4</f>
         <v>9.4548181818181796</v>
       </c>
       <c r="V24">
-        <f>Q4-INTERCEPT($Q$4:$Q$14,$P$4:$P$14)+SLOPE($Q$4:$Q$14,$P$4:$P$14)*P4</f>
+        <f t="shared" ref="V24:V34" si="13">Q4-INTERCEPT($Q$4:$Q$14,$P$4:$P$14)+SLOPE($Q$4:$Q$14,$P$4:$P$14)*P4</f>
         <v>7.5775454545454544</v>
       </c>
     </row>
     <row r="25" spans="9:22" x14ac:dyDescent="0.35">
       <c r="K25">
-        <f t="shared" ref="K25:K34" si="3">(K5-AVERAGE($K$4:$K$14))^2</f>
+        <f t="shared" ref="K25:K34" si="14">(K5-AVERAGE($K$4:$K$14))^2</f>
         <v>0.30350082644628285</v>
       </c>
       <c r="M25">
-        <f t="shared" ref="M25:M34" si="4">(M5-AVERAGE($M$4:$M$14))^2</f>
+        <f t="shared" ref="M25:M34" si="15">(M5-AVERAGE($M$4:$M$14))^2</f>
         <v>0.40843719008264529</v>
       </c>
       <c r="O25">
-        <f t="shared" ref="O25:O34" si="5">(O5-AVERAGE($O$4:$O$14))^2</f>
+        <f t="shared" ref="O25:O34" si="16">(O5-AVERAGE($O$4:$O$14))^2</f>
         <v>0.53290000000000193</v>
       </c>
       <c r="Q25">
-        <f t="shared" ref="Q25:Q34" si="6">(Q5-AVERAGE($Q$4:$Q$14))^2</f>
+        <f t="shared" ref="Q25:Q34" si="17">(Q5-AVERAGE($Q$4:$Q$14))^2</f>
         <v>3.0307644628099153</v>
       </c>
       <c r="S25">
-        <f t="shared" ref="S25:S34" si="7">K5-INTERCEPT($K$4:$K$14,$J$4:$J$14)+SLOPE($K$4:$K$14,$J$4:$J$14)*J5</f>
+        <f t="shared" ref="S25:S34" si="18">K5-INTERCEPT($K$4:$K$14,$J$4:$J$14)+SLOPE($K$4:$K$14,$J$4:$J$14)*J5</f>
         <v>7.9506363636363631</v>
       </c>
       <c r="T25">
-        <f>M5-INTERCEPT($M$4:$M$14,$L$4:$L$14)+SLOPE($M$4:$M$14,$L$4:$L$14)*L5</f>
+        <f t="shared" si="11"/>
         <v>9.1390909090909105</v>
       </c>
       <c r="U25">
-        <f>O5-INTERCEPT($O$4:$O$14,$N$4:$N$14)+SLOPE($O$4:$O$14,$N$4:$N$14)*N5</f>
+        <f t="shared" si="12"/>
         <v>7.7653636363636345</v>
       </c>
       <c r="V25">
-        <f>Q5-INTERCEPT($Q$4:$Q$14,$P$4:$P$14)+SLOPE($Q$4:$Q$14,$P$4:$P$14)*P5</f>
+        <f t="shared" si="13"/>
         <v>6.7575454545454541</v>
       </c>
     </row>
     <row r="26" spans="9:22" x14ac:dyDescent="0.35">
       <c r="K26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>6.2553719008261672E-3</v>
       </c>
       <c r="M26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>1.535346280991736</v>
       </c>
       <c r="O26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>27.457599999999992</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>4.3719008264463143E-2</v>
       </c>
       <c r="S26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>11.081090909090909</v>
       </c>
       <c r="T26">
-        <f>M6-INTERCEPT($M$4:$M$14,$L$4:$L$14)+SLOPE($M$4:$M$14,$L$4:$L$14)*L6</f>
+        <f t="shared" si="11"/>
         <v>12.239090909090908</v>
       </c>
       <c r="U26">
-        <f>O6-INTERCEPT($O$4:$O$14,$N$4:$N$14)+SLOPE($O$4:$O$14,$N$4:$N$14)*N6</f>
+        <f t="shared" si="12"/>
         <v>16.234000000000002</v>
       </c>
       <c r="V26">
-        <f>Q6-INTERCEPT($Q$4:$Q$14,$P$4:$P$14)+SLOPE($Q$4:$Q$14,$P$4:$P$14)*P6</f>
+        <f t="shared" si="13"/>
         <v>8.7075454545454534</v>
       </c>
     </row>
     <row r="27" spans="9:22" x14ac:dyDescent="0.35">
       <c r="K27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>1.7137190082644593</v>
       </c>
       <c r="M27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>1.6105917355371888</v>
       </c>
       <c r="O27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.15210000000000046</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>1.7931644628099193</v>
       </c>
       <c r="S27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>10.310727272727274</v>
       </c>
       <c r="T27">
-        <f>M7-INTERCEPT($M$4:$M$14,$L$4:$L$14)+SLOPE($M$4:$M$14,$L$4:$L$14)*L7</f>
+        <f t="shared" si="11"/>
         <v>10.269090909090909</v>
       </c>
       <c r="U27">
-        <f>O7-INTERCEPT($O$4:$O$14,$N$4:$N$14)+SLOPE($O$4:$O$14,$N$4:$N$14)*N7</f>
+        <f t="shared" si="12"/>
         <v>8.605090909090908</v>
       </c>
       <c r="V27">
-        <f>Q7-INTERCEPT($Q$4:$Q$14,$P$4:$P$14)+SLOPE($Q$4:$Q$14,$P$4:$P$14)*P7</f>
+        <f t="shared" si="13"/>
         <v>9.8375454545454541</v>
       </c>
     </row>
     <row r="28" spans="9:22" x14ac:dyDescent="0.35">
       <c r="K28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.68739173553718713</v>
       </c>
       <c r="M28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>3.0944008264462801</v>
       </c>
       <c r="O28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>9.6099999999999214E-2</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0.93913719008264751</v>
       </c>
       <c r="S28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>10.83090909090909</v>
       </c>
       <c r="T28">
-        <f>M8-INTERCEPT($M$4:$M$14,$L$4:$L$14)+SLOPE($M$4:$M$14,$L$4:$L$14)*L8</f>
+        <f t="shared" si="11"/>
         <v>11.759090909090908</v>
       </c>
       <c r="U28">
-        <f>O8-INTERCEPT($O$4:$O$14,$N$4:$N$14)+SLOPE($O$4:$O$14,$N$4:$N$14)*N8</f>
+        <f t="shared" si="12"/>
         <v>10.304545454545453</v>
       </c>
       <c r="V28">
-        <f>Q8-INTERCEPT($Q$4:$Q$14,$P$4:$P$14)+SLOPE($Q$4:$Q$14,$P$4:$P$14)*P8</f>
+        <f t="shared" si="13"/>
         <v>9.4675454545454549</v>
       </c>
     </row>
     <row r="29" spans="9:22" x14ac:dyDescent="0.35">
       <c r="K29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>6.0471280991735492</v>
       </c>
       <c r="M29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>0.35890991735537142</v>
       </c>
       <c r="O29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1.7955999999999972</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0.21243719008264383</v>
       </c>
       <c r="S29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>13.961181818181817</v>
       </c>
       <c r="T29">
-        <f>M9-INTERCEPT($M$4:$M$14,$L$4:$L$14)+SLOPE($M$4:$M$14,$L$4:$L$14)*L9</f>
+        <f t="shared" si="11"/>
         <v>12.099090909090908</v>
       </c>
       <c r="U29">
-        <f>O9-INTERCEPT($O$4:$O$14,$N$4:$N$14)+SLOPE($O$4:$O$14,$N$4:$N$14)*N9</f>
+        <f t="shared" si="12"/>
         <v>12.833727272727272</v>
       </c>
       <c r="V29">
-        <f>Q9-INTERCEPT($Q$4:$Q$14,$P$4:$P$14)+SLOPE($Q$4:$Q$14,$P$4:$P$14)*P9</f>
+        <f t="shared" si="13"/>
         <v>8.0375454545454552</v>
       </c>
     </row>
     <row r="30" spans="9:22" x14ac:dyDescent="0.35">
       <c r="K30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>6.8073553719009111E-2</v>
       </c>
       <c r="M30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>1.8793917355371905</v>
       </c>
       <c r="O30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>2.0164000000000022</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>5.0665917355371866</v>
       </c>
       <c r="S30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>7.2404545454545453</v>
       </c>
       <c r="T30">
-        <f>M10-INTERCEPT($M$4:$M$14,$L$4:$L$14)+SLOPE($M$4:$M$14,$L$4:$L$14)*L10</f>
+        <f t="shared" si="11"/>
         <v>6.1290909090909089</v>
       </c>
       <c r="U30">
-        <f>O10-INTERCEPT($O$4:$O$14,$N$4:$N$14)+SLOPE($O$4:$O$14,$N$4:$N$14)*N10</f>
+        <f t="shared" si="12"/>
         <v>6.0759090909090894</v>
       </c>
       <c r="V30">
-        <f>Q10-INTERCEPT($Q$4:$Q$14,$P$4:$P$14)+SLOPE($Q$4:$Q$14,$P$4:$P$14)*P10</f>
+        <f t="shared" si="13"/>
         <v>6.2475454545454543</v>
       </c>
     </row>
     <row r="31" spans="9:22" x14ac:dyDescent="0.35">
       <c r="K31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>10.503491735537203</v>
       </c>
       <c r="M31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>19.368000826446277</v>
       </c>
       <c r="O31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>4.4521000000000051</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>24.990909917355381</v>
       </c>
       <c r="S31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>3.2602727272727261</v>
       </c>
       <c r="T31">
-        <f>M11-INTERCEPT($M$4:$M$14,$L$4:$L$14)+SLOPE($M$4:$M$14,$L$4:$L$14)*L11</f>
+        <f t="shared" si="11"/>
         <v>2.0990909090909091</v>
       </c>
       <c r="U31">
-        <f>O11-INTERCEPT($O$4:$O$14,$N$4:$N$14)+SLOPE($O$4:$O$14,$N$4:$N$14)*N11</f>
+        <f t="shared" si="12"/>
         <v>4.3864545454545443</v>
       </c>
       <c r="V31">
-        <f>Q11-INTERCEPT($Q$4:$Q$14,$P$4:$P$14)+SLOPE($Q$4:$Q$14,$P$4:$P$14)*P11</f>
+        <f t="shared" si="13"/>
         <v>18.996545454545455</v>
       </c>
     </row>
     <row r="32" spans="9:22" x14ac:dyDescent="0.35">
       <c r="K32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>11.149528099173541</v>
       </c>
       <c r="M32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>2.6539371900826469</v>
       </c>
       <c r="O32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.42249999999999932</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>3.7671280991735521</v>
       </c>
       <c r="S32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>13.840999999999999</v>
       </c>
       <c r="T32">
-        <f>M12-INTERCEPT($M$4:$M$14,$L$4:$L$14)+SLOPE($M$4:$M$14,$L$4:$L$14)*L12</f>
+        <f t="shared" si="11"/>
         <v>12.129090909090909</v>
       </c>
       <c r="U32">
-        <f>O12-INTERCEPT($O$4:$O$14,$N$4:$N$14)+SLOPE($O$4:$O$14,$N$4:$N$14)*N12</f>
+        <f t="shared" si="12"/>
         <v>11.144272727272726</v>
       </c>
       <c r="V32">
-        <f>Q12-INTERCEPT($Q$4:$Q$14,$P$4:$P$14)+SLOPE($Q$4:$Q$14,$P$4:$P$14)*P12</f>
+        <f t="shared" si="13"/>
         <v>6.5575454545454539</v>
       </c>
     </row>
     <row r="33" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>7.1872735537190167</v>
       </c>
       <c r="M33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>5.8037190082644761E-2</v>
       </c>
       <c r="O33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1.1664000000000021</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0.16735537190082725</v>
       </c>
       <c r="S33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>5.3205454545454538</v>
       </c>
       <c r="T33">
-        <f>M13-INTERCEPT($M$4:$M$14,$L$4:$L$14)+SLOPE($M$4:$M$14,$L$4:$L$14)*L13</f>
+        <f t="shared" si="11"/>
         <v>7.7590909090909088</v>
       </c>
       <c r="U33">
-        <f>O13-INTERCEPT($O$4:$O$14,$N$4:$N$14)+SLOPE($O$4:$O$14,$N$4:$N$14)*N13</f>
+        <f t="shared" si="12"/>
         <v>6.9156363636363629</v>
       </c>
       <c r="V33">
-        <f>Q13-INTERCEPT($Q$4:$Q$14,$P$4:$P$14)+SLOPE($Q$4:$Q$14,$P$4:$P$14)*P13</f>
+        <f t="shared" si="13"/>
         <v>8.9075454545454544</v>
       </c>
     </row>
     <row r="34" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>3.3157099173553797</v>
       </c>
       <c r="M34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>7.6226190082644623</v>
       </c>
       <c r="O34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>3.1329000000000016</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0.37320991735537129</v>
       </c>
       <c r="S34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>5.1803636363636354</v>
       </c>
       <c r="T34">
-        <f>M14-INTERCEPT($M$4:$M$14,$L$4:$L$14)+SLOPE($M$4:$M$14,$L$4:$L$14)*L14</f>
+        <f t="shared" si="11"/>
         <v>4.2390909090909092</v>
       </c>
       <c r="U34">
-        <f>O14-INTERCEPT($O$4:$O$14,$N$4:$N$14)+SLOPE($O$4:$O$14,$N$4:$N$14)*N14</f>
+        <f t="shared" si="12"/>
         <v>5.2261818181818178</v>
       </c>
       <c r="V34">
-        <f>Q14-INTERCEPT($Q$4:$Q$14,$P$4:$P$14)+SLOPE($Q$4:$Q$14,$P$4:$P$14)*P14</f>
+        <f t="shared" si="13"/>
         <v>7.887545454545454</v>
       </c>
     </row>
@@ -6240,181 +6316,181 @@
     </row>
     <row r="38" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K38">
-        <f t="shared" ref="K38:K47" si="8">(K5-INTERCEPT($K$4:$K$14,$J$4:$J$14)-SLOPE($K$4:$K$14,$J$4:$J$14)*J5)^2</f>
+        <f t="shared" ref="K38:K47" si="19">(K5-INTERCEPT($K$4:$K$14,$J$4:$J$14)-SLOPE($K$4:$K$14,$J$4:$J$14)*J5)^2</f>
         <v>2.5824876033059261E-3</v>
       </c>
       <c r="M38">
-        <f t="shared" ref="M38:M47" si="9">(M5-INTERCEPT($M$4:$M$14,$L$4:$L$14)-SLOPE($M$4:$M$14,$L$4:$L$14)*L5)^2</f>
+        <f t="shared" ref="M38:M47" si="20">(M5-INTERCEPT($M$4:$M$14,$L$4:$L$14)-SLOPE($M$4:$M$14,$L$4:$L$14)*L5)^2</f>
         <v>1.2975280991735549</v>
       </c>
       <c r="O38">
-        <f t="shared" ref="O38:O47" si="10">(O5-INTERCEPT($O$4:$O$14,$N$4:$N$14)-SLOPE($O$4:$O$14,$N$4:$N$14)*N5)^2</f>
+        <f t="shared" ref="O38:O47" si="21">(O5-INTERCEPT($O$4:$O$14,$N$4:$N$14)-SLOPE($O$4:$O$14,$N$4:$N$14)*N5)^2</f>
         <v>5.302552892562061E-2</v>
       </c>
       <c r="Q38">
-        <f t="shared" ref="Q38:Q47" si="11">(Q5-INTERCEPT($Q$4:$Q$14,$P$4:$P$14)-SLOPE($Q$4:$Q$14,$P$4:$P$14)*P5)^2</f>
+        <f t="shared" ref="Q38:Q47" si="22">(Q5-INTERCEPT($Q$4:$Q$14,$P$4:$P$14)-SLOPE($Q$4:$Q$14,$P$4:$P$14)*P5)^2</f>
         <v>1.5400809999999991</v>
       </c>
     </row>
     <row r="39" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>3.6912888925619911</v>
       </c>
       <c r="M39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0.5789826446280989</v>
       </c>
       <c r="O39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>10.504670280991736</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>0.50268100000000071</v>
       </c>
     </row>
     <row r="40" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>1.7137190082644593</v>
       </c>
       <c r="M40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>1.6105917355371888</v>
       </c>
       <c r="O40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>0.15210000000000046</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>3.3819210000000015</v>
       </c>
     </row>
     <row r="41" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>2.9272099173554205E-2</v>
       </c>
       <c r="M41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0.57621900826446237</v>
       </c>
       <c r="O41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>0.47534757024793584</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>2.1579610000000033</v>
       </c>
     </row>
     <row r="42" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>1.7109504132231878E-3</v>
       </c>
       <c r="M42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>3.613455371900828</v>
       </c>
       <c r="O42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>1.342438223140499</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.521000000000046E-3</v>
       </c>
     </row>
     <row r="43" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>1.5360222231404927</v>
       </c>
       <c r="M43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>1.6664462809917312E-2</v>
       </c>
       <c r="O43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>6.269760330578346E-3</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>3.0660009999999982</v>
       </c>
     </row>
     <row r="44" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>0.54827293388429987</v>
       </c>
       <c r="M44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>3.6134553719008262</v>
       </c>
       <c r="O44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>0.1510382231404947</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>3.1554436208840472E-30</v>
       </c>
     </row>
     <row r="45" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>3.3812523057851172</v>
       </c>
       <c r="M45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>1.6664462809917541E-2</v>
       </c>
       <c r="O45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>0.72110976033057983</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>2.0764809999999994</v>
       </c>
     </row>
     <row r="46" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>2.8248441652892597</v>
       </c>
       <c r="M46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0.57621900826446237</v>
       </c>
       <c r="O46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>6.487570247934088E-3</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>0.82628100000000126</v>
       </c>
     </row>
     <row r="47" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>3.2203933884296834E-2</v>
       </c>
       <c r="M47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0.5789826446280989</v>
       </c>
       <c r="O47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>5.2399371900826164E-2</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.2320999999999948E-2</v>
       </c>
     </row>
@@ -6435,11 +6511,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="I2:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6455,97 +6531,97 @@
   </cols>
   <sheetData>
     <row r="2" spans="9:28" x14ac:dyDescent="0.35">
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22" t="s">
+      <c r="K2" s="32"/>
+      <c r="L2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="M2" s="32"/>
+      <c r="N2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22" t="s">
+      <c r="O2" s="32"/>
+      <c r="P2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="S2" s="31" t="s">
+      <c r="Q2" s="32"/>
+      <c r="S2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="32"/>
-      <c r="U2" s="31" t="s">
+      <c r="T2" s="31"/>
+      <c r="U2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="32"/>
-      <c r="W2" s="31" t="s">
+      <c r="V2" s="31"/>
+      <c r="W2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="31" t="s">
+      <c r="X2" s="31"/>
+      <c r="Y2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="32"/>
+      <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="9:28" x14ac:dyDescent="0.35">
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="S3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="30" t="s">
+      <c r="T3" s="27" t="s">
         <v>24</v>
       </c>
       <c r="U3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="30" t="s">
+      <c r="V3" s="27" t="s">
         <v>25</v>
       </c>
       <c r="W3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="30" t="s">
+      <c r="X3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="33" t="s">
+      <c r="Y3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="30" t="s">
+      <c r="Z3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AB3" s="34" t="s">
+      <c r="AB3" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="9:28" x14ac:dyDescent="0.35">
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <v>1</v>
       </c>
       <c r="J4" s="8">
@@ -6574,16 +6650,16 @@
       <c r="Q4" s="9">
         <v>6.58</v>
       </c>
-      <c r="T4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AB4" s="34" t="s">
+      <c r="T4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AB4" s="29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="9:28" x14ac:dyDescent="0.35">
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <v>2</v>
       </c>
       <c r="J5" s="10">
@@ -6612,16 +6688,16 @@
       <c r="Q5" s="11">
         <v>5.76</v>
       </c>
-      <c r="T5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AB5" s="34" t="s">
+      <c r="T5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AB5" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="9:28" x14ac:dyDescent="0.35">
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <v>3</v>
       </c>
       <c r="J6" s="10">
@@ -6650,16 +6726,16 @@
       <c r="Q6" s="11">
         <v>7.71</v>
       </c>
-      <c r="T6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AB6" s="34" t="s">
+      <c r="T6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AB6" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="9:28" x14ac:dyDescent="0.35">
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <v>4</v>
       </c>
       <c r="J7" s="10">
@@ -6688,13 +6764,13 @@
       <c r="Q7" s="11">
         <v>8.84</v>
       </c>
-      <c r="T7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Z7" s="28"/>
+      <c r="T7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Z7" s="25"/>
     </row>
     <row r="8" spans="9:28" x14ac:dyDescent="0.35">
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <v>5</v>
       </c>
       <c r="J8" s="10">
@@ -6723,13 +6799,13 @@
       <c r="Q8" s="11">
         <v>8.4700000000000006</v>
       </c>
-      <c r="T8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Z8" s="28"/>
+      <c r="T8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Z8" s="25"/>
     </row>
     <row r="9" spans="9:28" x14ac:dyDescent="0.35">
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <v>6</v>
       </c>
       <c r="J9" s="10">
@@ -6758,13 +6834,13 @@
       <c r="Q9" s="11">
         <v>7.04</v>
       </c>
-      <c r="T9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Z9" s="28"/>
+      <c r="T9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Z9" s="25"/>
     </row>
     <row r="10" spans="9:28" x14ac:dyDescent="0.35">
-      <c r="I10" s="20">
+      <c r="I10" s="19">
         <v>7</v>
       </c>
       <c r="J10" s="10">
@@ -6793,13 +6869,13 @@
       <c r="Q10" s="11">
         <v>5.25</v>
       </c>
-      <c r="T10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Z10" s="28"/>
+      <c r="T10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Z10" s="25"/>
     </row>
     <row r="11" spans="9:28" x14ac:dyDescent="0.35">
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <v>8</v>
       </c>
       <c r="J11" s="10">
@@ -6828,13 +6904,13 @@
       <c r="Q11" s="11">
         <v>12.5</v>
       </c>
-      <c r="T11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Z11" s="28"/>
+      <c r="T11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Z11" s="25"/>
     </row>
     <row r="12" spans="9:28" x14ac:dyDescent="0.35">
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <v>9</v>
       </c>
       <c r="J12" s="10">
@@ -6863,13 +6939,13 @@
       <c r="Q12" s="11">
         <v>5.56</v>
       </c>
-      <c r="T12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Z12" s="28"/>
+      <c r="T12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Z12" s="25"/>
     </row>
     <row r="13" spans="9:28" x14ac:dyDescent="0.35">
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <v>10</v>
       </c>
       <c r="J13" s="10">
@@ -6898,13 +6974,13 @@
       <c r="Q13" s="11">
         <v>7.91</v>
       </c>
-      <c r="T13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Z13" s="28"/>
+      <c r="T13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Z13" s="25"/>
     </row>
     <row r="14" spans="9:28" x14ac:dyDescent="0.35">
-      <c r="I14" s="21">
+      <c r="I14" s="20">
         <v>11</v>
       </c>
       <c r="J14" s="12">
@@ -6933,10 +7009,10 @@
       <c r="Q14" s="13">
         <v>6.89</v>
       </c>
-      <c r="T14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Z14" s="29"/>
+      <c r="T14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Z14" s="26"/>
     </row>
     <row r="16" spans="9:28" x14ac:dyDescent="0.35">
       <c r="J16" s="7" t="s">
@@ -6954,13 +7030,13 @@
       <c r="N16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="16" t="s">
+      <c r="O16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P16" s="16" t="s">
+      <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q16" s="16" t="s">
+      <c r="Q16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="R16" s="14" t="s">
@@ -6982,8 +7058,8 @@
       <c r="O17" s="2"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
     </row>
     <row r="18" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I18" t="s">
@@ -6997,8 +7073,8 @@
       <c r="O18" s="2"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
     </row>
     <row r="19" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I19" t="s">
@@ -7012,23 +7088,23 @@
       <c r="O19" s="2"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
     </row>
     <row r="20" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I20" t="s">
         <v>7</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="25"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="22"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
     </row>
     <row r="21" spans="9:22" x14ac:dyDescent="0.35">
       <c r="Q21" s="6"/>
